--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jespe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jespe\Desktop\GIT\iFollow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB062DE7-F841-47DE-BE7E-53E2C77B9FB2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E18DCF-53FB-49B9-9073-404DA0A3106C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Fase/uge</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Tidsplan for Gruppe 5</t>
-  </si>
-  <si>
-    <t>Onsdag uge 51 - Aflevering af rapport.</t>
   </si>
   <si>
     <t>Risikoanalyse</t>
@@ -69,16 +66,7 @@
     <t>Gul : iterationer</t>
   </si>
   <si>
-    <t>Fredag uge 41 - Review af systemarkitektur</t>
-  </si>
-  <si>
-    <t>Fredag uge 47 - Review af design, implementering, proces</t>
-  </si>
-  <si>
-    <t>VIGTIGE DEADLINES (Gælder udførelse af nedenstående)</t>
-  </si>
-  <si>
-    <t>Rød : Efterårsferie</t>
+    <t>Rød : Påske</t>
   </si>
 </sst>
 </file>
@@ -363,7 +351,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -380,10 +368,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
@@ -394,7 +378,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -402,6 +385,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="God" xfId="1" builtinId="26"/>
@@ -725,7 +714,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -737,12 +726,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22 16384:16384" ht="14.25" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:22 16384:16384" ht="14.25" customHeight="1">
       <c r="I2" s="1"/>
@@ -799,6 +788,9 @@
       <c r="Q3" s="6">
         <v>21</v>
       </c>
+      <c r="R3" s="6">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:22 16384:16384" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
@@ -820,138 +812,144 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
     </row>
     <row r="5" spans="1:22 16384:16384" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:22 16384:16384" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="1"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="33"/>
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:22 16384:16384" ht="14.25" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="6"/>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:22 16384:16384" ht="14.25" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="27"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="6"/>
       <c r="T8" s="1"/>
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="1:22 16384:16384" ht="14.25" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="23"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="6"/>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:22 16384:16384" ht="14.25" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="6"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="XFD10" s="7"/>
@@ -963,19 +961,20 @@
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="7"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="36"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="6"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
@@ -986,19 +985,20 @@
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="6"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
@@ -1009,19 +1009,20 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="32"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
@@ -1031,48 +1032,34 @@
     </row>
     <row r="15" spans="1:22 16384:16384" ht="14.25" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:22 16384:16384" ht="14.25" customHeight="1">
       <c r="A16" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:4" ht="14.25" customHeight="1"/>
@@ -1093,18 +1080,18 @@
     <row r="41" spans="2:14" ht="14.25" customHeight="1"/>
     <row r="42" spans="2:14" ht="14.25" customHeight="1"/>
     <row r="43" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
     </row>
     <row r="44" spans="2:14" ht="14.25" customHeight="1"/>
     <row r="45" spans="2:14" ht="14.25" customHeight="1"/>
